--- a/Bases_de_Dados/FootyStats/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Brazil Serie B_2025.xlsx
@@ -81492,7 +81492,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>['40', '84']</t>
+          <t>['39', '84']</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
